--- a/src/com/bivc/cimsmgs/xls/Karta przeladunkowa - kontenery.xlsx
+++ b/src/com/bivc/cimsmgs/xls/Karta przeladunkowa - kontenery.xlsx
@@ -148,7 +148,6 @@
   <numFmts count="23">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="168" formatCode="0\ &quot;´&quot;"/>
     <numFmt numFmtId="169" formatCode="[$-409]d/mmm/yy;@"/>
@@ -169,6 +168,7 @@
     <numFmt numFmtId="184" formatCode="_-&quot;L.&quot;\ * #,##0_-;\-&quot;L.&quot;\ * #,##0_-;_-&quot;L.&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="185" formatCode="00000"/>
     <numFmt numFmtId="186" formatCode="#,##0.00\ [$EUR]"/>
+    <numFmt numFmtId="187" formatCode="0.0##"/>
   </numFmts>
   <fonts count="140">
     <font>
@@ -5255,7 +5255,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="64" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5297,12 +5297,6 @@
     <xf numFmtId="1" fontId="138" fillId="66" borderId="12" xfId="1391" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="138" fillId="66" borderId="12" xfId="1391" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="138" fillId="66" borderId="12" xfId="1391" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="12" xfId="2898" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5312,9 +5306,6 @@
     <xf numFmtId="3" fontId="132" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="132" fillId="0" borderId="12" xfId="2898" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5327,6 +5318,27 @@
     <xf numFmtId="0" fontId="138" fillId="66" borderId="12" xfId="1391" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5338,18 +5350,6 @@
     </xf>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5379,13 +5379,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="138" fillId="66" borderId="12" xfId="1391" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="132" fillId="0" borderId="12" xfId="2898" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8673,21 +8670,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="46.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1">
@@ -8708,96 +8705,96 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="42"/>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="27.75" customHeight="1">
       <c r="A5" s="40"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="32"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="18">
-      <c r="A6" s="21"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="22"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="27" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="10">
         <f>SUM(I6:I6)</f>
         <v>0</v>
@@ -8819,31 +8816,26 @@
     <row r="10" spans="1:13" ht="9.75" customHeight="1"/>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
     </row>
   </sheetData>
   <sortState ref="D6:M46">
     <sortCondition ref="E6:E46"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="C11:M11"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="F1:G1"/>
@@ -8860,6 +8852,11 @@
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="D6">
